--- a/particle_count_time_comparison.xlsx
+++ b/particle_count_time_comparison.xlsx
@@ -470,19 +470,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01000842094421387</v>
+        <v>0.007645826339721679</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05075641632080078</v>
+        <v>0.05249326705932617</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05604553699493408</v>
+        <v>0.05710129022598267</v>
       </c>
       <c r="E2" t="n">
-        <v>0.004598603248596191</v>
+        <v>0.00451469898223877</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007452363967895508</v>
+        <v>0.008224248886108398</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>0.003204612731933594</v>
+        <v>0.003091549873352051</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1516575145721435</v>
+        <v>0.149323263168335</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1672777414321899</v>
+        <v>0.1632559204101562</v>
       </c>
       <c r="E3" t="n">
-        <v>0.007027559280395508</v>
+        <v>0.006146454811096191</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007840323448181152</v>
+        <v>0.007683923244476318</v>
       </c>
     </row>
     <row r="4">
@@ -510,79 +510,79 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>0.005141205787658691</v>
+        <v>0.003246395587921143</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5761621379852295</v>
+        <v>0.2547314834594727</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6620002365112305</v>
+        <v>0.2749104976654053</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01222504138946533</v>
+        <v>0.007542545795440674</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0178076696395874</v>
+        <v>0.008201005458831788</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004499402046203613</v>
+        <v>0.004160456657409668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1143979644775391</v>
+        <v>0.7010759782791137</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1294795846939087</v>
+        <v>0.7661071610450745</v>
       </c>
       <c r="E5" t="n">
-        <v>0.007401785850524902</v>
+        <v>0.01028889179229736</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01658645629882812</v>
+        <v>0.01187743663787842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="B6" t="n">
-        <v>0.003076629638671875</v>
+        <v>0.004705264568328858</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05076403617858886</v>
+        <v>1.652878413200378</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05530022621154785</v>
+        <v>1.743115079402924</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004433040618896484</v>
+        <v>0.01122537136077881</v>
       </c>
       <c r="F6" t="n">
-        <v>0.007661328315734863</v>
+        <v>0.01054463386535645</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="B7" t="n">
-        <v>0.002986927032470703</v>
+        <v>0.006047618389129638</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05087081432342529</v>
+        <v>3.335453951358795</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05515007972717285</v>
+        <v>3.553592114448547</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004331893920898437</v>
+        <v>0.01505979537963867</v>
       </c>
       <c r="F7" t="n">
-        <v>0.007599949836730957</v>
+        <v>0.01421611547470093</v>
       </c>
     </row>
   </sheetData>

--- a/particle_count_time_comparison.xlsx
+++ b/particle_count_time_comparison.xlsx
@@ -470,19 +470,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.007645826339721679</v>
+        <v>0.003894981384277344</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05249326705932617</v>
+        <v>0.05030854558944702</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05710129022598267</v>
+        <v>0.05556866979598999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00451469898223877</v>
+        <v>0.003357048511505127</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008224248886108398</v>
+        <v>0.007688809871673584</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>0.003091549873352051</v>
+        <v>0.003227773189544678</v>
       </c>
       <c r="C3" t="n">
-        <v>0.149323263168335</v>
+        <v>0.1493190970420837</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1632559204101562</v>
+        <v>0.1677105717658997</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006146454811096191</v>
+        <v>0.004562448501586914</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007683923244476318</v>
+        <v>0.00800074052810669</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003246395587921143</v>
+        <v>0.0034123854637146</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2547314834594727</v>
+        <v>0.2475755620002747</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2749104976654053</v>
+        <v>0.2744781737327576</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007542545795440674</v>
+        <v>0.004904109954833985</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008201005458831788</v>
+        <v>0.008074443817138672</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004160456657409668</v>
+        <v>0.003518801212310791</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7010759782791137</v>
+        <v>0.4934297652244568</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7661071610450745</v>
+        <v>0.5414915599822998</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01028889179229736</v>
+        <v>0.005655412673950195</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01187743663787842</v>
+        <v>0.008360137462615966</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>300</v>
       </c>
       <c r="B6" t="n">
-        <v>0.004705264568328858</v>
+        <v>0.004699211597442627</v>
       </c>
       <c r="C6" t="n">
-        <v>1.652878413200378</v>
+        <v>1.478040539264679</v>
       </c>
       <c r="D6" t="n">
-        <v>1.743115079402924</v>
+        <v>1.616094822883606</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01122537136077881</v>
+        <v>0.007434908866882324</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01054463386535645</v>
+        <v>0.009993820190429688</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>500</v>
       </c>
       <c r="B7" t="n">
-        <v>0.006047618389129638</v>
+        <v>0.00610487699508667</v>
       </c>
       <c r="C7" t="n">
-        <v>3.335453951358795</v>
+        <v>2.491054634094238</v>
       </c>
       <c r="D7" t="n">
-        <v>3.553592114448547</v>
+        <v>2.708728568553925</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01505979537963867</v>
+        <v>0.009824200630187989</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01421611547470093</v>
+        <v>0.01178326177597046</v>
       </c>
     </row>
   </sheetData>
